--- a/Course Structure/Vue Introduction Script.xlsx
+++ b/Course Structure/Vue Introduction Script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Desktop\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\My Courses\My-Vue-Course-Structure\Course Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F833AB95-5ACB-4FCD-90F8-43C8AE17906E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E97B71-3537-4E60-93AC-543FDE2BE086}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{D958B616-D8CB-4D1C-B4CC-F5BFC9DDE34E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D958B616-D8CB-4D1C-B4CC-F5BFC9DDE34E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Go to jsbin.com</t>
   </si>
@@ -38,9 +33,6 @@
     <t>close top toolbar</t>
   </si>
   <si>
-    <t>insert the cdn link of vue.js file in the head section,this is the fastet way for adding vue to the project</t>
-  </si>
-  <si>
     <t>step</t>
   </si>
   <si>
@@ -65,22 +57,9 @@
     <t>Add label,input and button</t>
   </si>
   <si>
-    <t>our app will render in this container</t>
-  </si>
-  <si>
-    <t>this is fastest way to add vue to the project</t>
-  </si>
-  <si>
-    <t>Set "el" propety to #app</t>
-  </si>
-  <si>
     <t>add todo array</t>
   </si>
   <si>
-    <t xml:space="preserve">        {title:"wakeup",done:true},
-        {title:"eat breakfast",done:false}</t>
-  </si>
-  <si>
     <t>Code Snippet</t>
   </si>
   <si>
@@ -90,83 +69,210 @@
     <t>render todo list</t>
   </si>
   <si>
-    <t>insert ul/li tag
-user v-for for rendering list
+    <t>add newtask data property</t>
+  </si>
+  <si>
+    <t>bind input to newtask</t>
+  </si>
+  <si>
+    <t>create add method</t>
+  </si>
+  <si>
+    <t>bind click event of button</t>
+  </si>
+  <si>
+    <t>try add method</t>
+  </si>
+  <si>
+    <t>bind checked value to done property</t>
+  </si>
+  <si>
+    <t>test computed value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در این آموزش می خواهم نحوه ایجاد یک اپ ساده مدیریت تو دو را به شما نشان دهم  </t>
+  </si>
+  <si>
+    <t>بروز خود را باز کنید و به آدرسJSbin.com بروید</t>
+  </si>
+  <si>
+    <t>تولبار بالایی را ببندید</t>
+  </si>
+  <si>
+    <t>در قسمت Body، یک تگ دیو با شناسه ، App ایجاد می کنیم. این قسمت بعنوان یک کانتینر برای نمایش اپلیکیشن ما عمل خواهد کرد</t>
+  </si>
+  <si>
+    <t>و در پنل HTML و در قسمت Head لینک CDN VUE را درج کنید، این مستقیم ترین روش برای افزودن ویو به پروژه است</t>
+  </si>
+  <si>
+    <t>یک نمونه از ویو ایجاد می کنیم و پراپرتی el را برابر با #app قرار می دهیم، این همان کانتینری بود که در مرحله قبل ایجاد کردیم</t>
+  </si>
+  <si>
+    <t>Add an input, a label and button to the form</t>
+  </si>
+  <si>
+    <t>برای نگهداری لیست تسک ها، یک آرایه در بخش دیتای ویو ایجاد می کنیم</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>v-for directive is used to render a list of items based on an array
+The directive v-if is used to conditionally render a block
+The v-else-if, as the name suggests, serves as an “else if block” for v-if</t>
+  </si>
+  <si>
+    <t>حالا با استفاده از قابلیت templating ویو این لیست را رندر می کنیم
+یک تگ ul/li ایجاد می کنیم
+با استفاده از دایرکتیو v-for لیست تسک ها را نمایش می کنیم
+یک چک باکس در این قسمت درج می کنیم
+و با استفاده از دایرکتیو شرطی v-if/v-else تسک های انجام شده و انجام نشده را رندی می کنیم</t>
+  </si>
+  <si>
+    <t>change style of ul and del tag</t>
+  </si>
+  <si>
+    <t>برای بهتر کردن ظاهر برنامه، بولت ها را حذف می کنیم و رنگ تگ del را تغییر می دهیم</t>
+  </si>
+  <si>
+    <t>یک دیتا پراپرتی بنام newtask به قسمت دیتای ویو اضافه می کنیم</t>
+  </si>
+  <si>
+    <t>Create a two-way binding on a form input element or a component</t>
+  </si>
+  <si>
+    <t>create add method to push new task to the list</t>
+  </si>
+  <si>
+    <t>bind click event of button to this method by using v-on directive</t>
+  </si>
+  <si>
+    <t>Attaches an event listener to the element</t>
+  </si>
+  <si>
+    <t>متد اد را آزمایش میکنیم، اوکی همانطور که می بینید به درستی کار می کند</t>
+  </si>
+  <si>
+    <t>برای هندل کردن تغییر وضعیت یک تسک، یک متد ایجاد می کنیم</t>
+  </si>
+  <si>
+    <t>try checkbox event and value binding</t>
+  </si>
+  <si>
+    <t>Now, to calculate remaining tasks, add a computed property, named remaining</t>
+  </si>
+  <si>
+    <t>computed</t>
+  </si>
+  <si>
+    <t>and finally, show this property by using interpolation</t>
+  </si>
+  <si>
+    <t>In this tutorial I gonna show you, how to create a simple to-do app with vue</t>
+  </si>
+  <si>
+    <t>Create an Instance of vue, and set "el" propety to #app, This is the container we created in the previous step</t>
+  </si>
+  <si>
+    <t>To keep the to-do list, we create an array in the Data section of vue object</t>
+  </si>
+  <si>
+    <t>To improve the look of the list, change the style of the ul and the del tag</t>
+  </si>
+  <si>
+    <t>We create a toggle method to handle, changing the status of a task</t>
+  </si>
+  <si>
+    <t>then, bind checkbox's change event to this method</t>
+  </si>
+  <si>
+    <t>also, bind the checked value of checkbox to the done property of the task</t>
+  </si>
+  <si>
+    <t>try checkbox event and value binding, 
+ok, it works properly</t>
+  </si>
+  <si>
+    <t>try add method
+ok, it works properly</t>
+  </si>
+  <si>
+    <t>recap</t>
+  </si>
+  <si>
+    <t>todo:[{title:"wake up",done:true},
+{title:"make coffee",done:false},
+{title:"eat breakfast",done:false}]</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://cdn.jsdelivr.net/npm/vue/dist/vue.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>crete a toggle mehtod</t>
+  </si>
+  <si>
+    <t>bind checkbox change event to toggle method</t>
+  </si>
+  <si>
+    <t>render remaining tasks</t>
+  </si>
+  <si>
+    <t>create computed method</t>
+  </si>
+  <si>
+    <t>this computed property, recalculate by changing in the tasks state, and because of reactivity nature of vue, this change is shown on the form, accordingly</t>
+  </si>
+  <si>
+    <t>as you can see, we created all these functionalities, just by adding a few lines of code.And that is one of the reasons, why this framework is so popular</t>
+  </si>
+  <si>
+    <t>close the top toolbar</t>
+  </si>
+  <si>
+    <t>insert the cdn link of vue.js file, in the head section, this is the fastest way to adding vue to the project</t>
+  </si>
+  <si>
+    <t>add a div tag with app id
+the app will be rendered in this container</t>
+  </si>
+  <si>
+    <t>Now, by using the templating feature of vue, we will show the to-do list
+insert a ul/li tag
+use v-for directive, for rendering the list of tasks
 insert a checkbox
-user v-if,v-else</t>
-  </si>
-  <si>
-    <t>change list-style-type of ul tag</t>
-  </si>
-  <si>
-    <t>add newtask data property</t>
-  </si>
-  <si>
-    <t>bind input to newtask</t>
-  </si>
-  <si>
-    <t>create add method</t>
-  </si>
-  <si>
-    <t>bind click event of button</t>
-  </si>
-  <si>
-    <t>try add method</t>
-  </si>
-  <si>
-    <t>change color of del tag</t>
-  </si>
-  <si>
-    <t>crete ad toggle mehtod</t>
-  </si>
-  <si>
-    <t>bind checkbox change vent to toggle method</t>
-  </si>
-  <si>
-    <t>bind checked value to done property</t>
-  </si>
-  <si>
-    <t>crete computed method</t>
-  </si>
-  <si>
-    <t>render remaining task</t>
-  </si>
-  <si>
-    <t>test computed value</t>
-  </si>
-  <si>
-    <t>view the address of jsbin , github gist</t>
-  </si>
-  <si>
-    <t>https://jsbin.com/coqaxif/1/edit?html,output</t>
-  </si>
-  <si>
-    <t>https://gist.github.com/Muhammad-ahmadi/fe7f63c42f970d8692d1f5928e2df76f</t>
-  </si>
-  <si>
-    <t>bit.ly/intbin</t>
-  </si>
-  <si>
-    <t>bit.ly/vueint</t>
+and finally by using the v-if,v-else directives, we will render, the task based on the value of done property of each task</t>
+  </si>
+  <si>
+    <t>then, bind input to this property by using v-model directive</t>
+  </si>
+  <si>
+    <t>add newtask data property to data section of the vue object</t>
+  </si>
+  <si>
+    <t>return this.todo.filter(task=&gt;!task.done).length;</t>
+  </si>
+  <si>
+    <t>ul {
+  list-style-type: none;
+}
+del{
+  color:rgba(0,0,0,0.3);
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can see completed code at this url: bit.ly/vue_demo
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,9 +280,29 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,33 +324,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="2"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -541,207 +680,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13A517C-5D8B-451E-9D5D-EFF4275F9457}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.86328125" style="5"/>
+    <col min="1" max="1" width="10.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="66.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="51.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="81" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="B11" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="4" t="s">
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="C25" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{7C3201E3-20B1-4D41-A99D-4BBAF5D9C81A}"/>
-    <hyperlink ref="C26" r:id="rId2" xr:uid="{2733B365-52F1-4972-82CF-55BE10098CAB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="20" max="16383" man="1"/>
   </rowBreaks>
